--- a/MEDIA/100000_ 1102_301_會計科目餘額明細.xlsx
+++ b/MEDIA/100000_ 1102_301_會計科目餘額明細.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,7 +356,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>森邦(股)會計科目餘額明細(100000_ 1102_301_2020-09-10~2020-09-10)</t>
+          <t>森邦(股)會計科目餘額明細(100000_ 1102_301_2020-10-20~2020-10-20)</t>
         </is>
       </c>
     </row>
@@ -419,7 +419,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>51560756</v>
+        <v>47482170</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -427,7 +427,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20200910</t>
+          <t>20201020</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -442,21 +442,21 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>匯8月-代訓費-共3筆                   </t>
+          <t>存現                            </t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>365557</v>
       </c>
       <c r="F4" t="n">
-        <v>-75000</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>51485756</v>
+        <v>47847727</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>108353</t>
+          <t>110332</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -468,7 +468,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20200910</t>
+          <t>20201020</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -478,38 +478,38 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>楊梅青山                                    </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>中華電信08月電話3922871(南區客戶播打加盟0800)</t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>15914</v>
       </c>
       <c r="F5" t="n">
-        <v>-380</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>51485376</v>
+        <v>47863641</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>108926</t>
+          <t>110342</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000887</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20200910</t>
+          <t>20201020</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -519,38 +519,38 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>高雄城峰	                                   </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>匯義強興-109/08月油品費用              </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>18120</v>
       </c>
       <c r="F6" t="n">
-        <v>-97237</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>51388139</v>
+        <v>47881761</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>108416</t>
+          <t>110278</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000880</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20200910</t>
+          <t>20201020</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -560,38 +560,38 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>台南文南                                    </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>彰化彰基-結束營業退貨款                  </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>22578</v>
       </c>
       <c r="F7" t="n">
-        <v>-1317</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>51386822</v>
+        <v>47904339</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>108460</t>
+          <t>110278</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000074</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20200910</t>
+          <t>20201020</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>北市敦北                                    </t>
+          <t>南崁奉化                                    </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -610,29 +610,29 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>20000</v>
+        <v>8940</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>51406822</v>
+        <v>47913279</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>108590</t>
+          <t>110278</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1000429</t>
+          <t>1000822</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20200910</t>
+          <t>20201020</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>斗六慶生	                                   </t>
+          <t>虎尾復興                                    </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -651,29 +651,29 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>19177</v>
+        <v>43715</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>51425999</v>
+        <v>47956994</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>108590</t>
+          <t>110278</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1000912</t>
+          <t>1000594</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20200910</t>
+          <t>20201020</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>高雄六合	                                   </t>
+          <t>三重仁義                                    </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -692,29 +692,29 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>15079</v>
+        <v>17054</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>51441078</v>
+        <v>47974048</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>108590</t>
+          <t>110333</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1000849</t>
+          <t>1000405</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20200910</t>
+          <t>20201020</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>南台科大	                                   </t>
+          <t>東勢中山                                    </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -733,29 +733,29 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>30000</v>
+        <v>25780</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>51471078</v>
+        <v>47999828</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>108590</t>
+          <t>110278</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1000923</t>
+          <t>1000290</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20200910</t>
+          <t>20201020</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>梧棲大聖	                                   </t>
+          <t>中壢環東中山                                  </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -774,29 +774,29 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>50000</v>
+        <v>10790</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>51521078</v>
+        <v>48010618</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>108590</t>
+          <t>110278</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1000889</t>
+          <t>1000817</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20200910</t>
+          <t>20201020</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>竹北民權	                                   </t>
+          <t>新竹鐵道                                    </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -815,29 +815,29 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>10343</v>
+        <v>27387</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>51531421</v>
+        <v>48038005</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>108590</t>
+          <t>110278</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1000946</t>
+          <t>1000525</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20200910</t>
+          <t>20201020</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -847,7 +847,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>桃園中正長春	                                 </t>
+          <t>梧棲中興	                                   </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -856,29 +856,29 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>76637</v>
+        <v>23344</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>51608058</v>
+        <v>48061349</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>108590</t>
+          <t>110278</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1000925</t>
+          <t>1000898</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20200910</t>
+          <t>20201020</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>員林建國                                    </t>
+          <t>鹽行仁愛	                                   </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -897,29 +897,29 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>11498</v>
+        <v>23000</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>51619556</v>
+        <v>48084349</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>108563</t>
+          <t>110278</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1000648</t>
+          <t>1000833</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20200910</t>
+          <t>20201020</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -929,7 +929,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>堤諾台南崇學                                  </t>
+          <t>內湖江南                                    </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -938,29 +938,29 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>31623</v>
+        <v>55314</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>51651179</v>
+        <v>48139663</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>108563</t>
+          <t>110278</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>4000018</t>
+          <t>1000146</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20200910</t>
+          <t>20201020</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -970,7 +970,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>高雄昌富                                    </t>
+          <t>竹北文興                                    </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -979,29 +979,29 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>18257</v>
+        <v>11210</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>51669436</v>
+        <v>48150873</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>108563</t>
+          <t>110278</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1000262</t>
+          <t>1000903</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20200910</t>
+          <t>20201020</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中一食品股份有限公司                              </t>
+          <t>北市忠孝復興                                  </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1020,29 +1020,29 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>37461</v>
+        <v>60613</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>51706897</v>
+        <v>48211486</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>108563</t>
+          <t>110278</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>5999894</t>
+          <t>1000548</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20200910</t>
+          <t>20201020</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>台中精科	                                   </t>
+          <t>高雄六合	                                   </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1061,29 +1061,29 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>22935</v>
+        <v>41050</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>51729832</v>
+        <v>48252536</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>108563</t>
+          <t>110278</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1000890</t>
+          <t>1000849</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20200910</t>
+          <t>20201020</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>神岡昌平	                                   </t>
+          <t>金門金城                                    </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1102,29 +1102,29 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>31319</v>
+        <v>59029</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>51761151</v>
+        <v>48311565</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>108563</t>
+          <t>110278</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1000931</t>
+          <t>1000191</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20200910</t>
+          <t>20201020</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>三重光復                                    </t>
+          <t>員林建國                                    </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1143,29 +1143,29 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>34628</v>
+        <v>11367</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>51795779</v>
+        <v>48322932</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>108563</t>
+          <t>110278</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1000781</t>
+          <t>1000648</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20200910</t>
+          <t>20201020</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>北市愛國                                    </t>
+          <t>堤諾長庚                                    </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1184,29 +1184,29 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>22386</v>
+        <v>63883</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>51818165</v>
+        <v>48386815</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>108563</t>
+          <t>110278</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1000433</t>
+          <t>4000024</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20200910</t>
+          <t>20201020</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1216,38 +1216,38 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>堤諾林口店                                   </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>存現                            </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1331535</v>
+        <v>172087</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>53149700</v>
+        <v>48558902</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>108615</t>
+          <t>110278</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4000023</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20200910</t>
+          <t>20201020</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1262,21 +1262,21 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>10906台北展NO2賴景亭/陳郡甫-頭份昌榮 工程款80萬</t>
+          <t>匯:遠通電收(股)公司-ETAG109/11月通行費    </t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>800000</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>-100000</v>
       </c>
       <c r="G24" t="n">
-        <v>53949700</v>
+        <v>48458902</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>108615</t>
+          <t>109988</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1288,7 +1288,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20200910</t>
+          <t>20201020</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1298,38 +1298,38 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>永和永利	                                   </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>10906台北展NO.117-蕭惠文-北市光復 保證金+工程</t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>660000</v>
+        <v>18393</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>54609700</v>
+        <v>48477295</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>108615</t>
+          <t>110342</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000954</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20200910</t>
+          <t>20201020</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1339,359 +1339,31 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>竹北台元	                                   </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>暫收-福大鮮花籃-御頂國際(股)公司            </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>3500</v>
+        <v>23075</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>54613200</v>
+        <v>48500370</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>108615</t>
+          <t>110278</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>20200910</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>台北八德                                    </t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>100000.1102.301               </t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>10080</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>54623280</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>108614</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>1000202</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>20200910</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>其他                                      </t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>中和自立拆除費用                      </t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>10000</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>54633280</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>109220</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>1000000</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>20200910</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>中華電信08月電話3602701(1樓傳真)        </t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>-536</v>
-      </c>
-      <c r="G29" t="n">
-        <v>54632744</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>108926</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>20200910</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>中華電信08月電話3603007(客服轉接專線)      </t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>-304</v>
-      </c>
-      <c r="G30" t="n">
-        <v>54632440</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>108926</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>20200910</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>中華電信08月電話3603012(2樓傳真)        </t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>-268</v>
-      </c>
-      <c r="G31" t="n">
-        <v>54632172</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>108926</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>20200910</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>中華電信08月電話3603013(行動電話播打加盟0800)</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>-452</v>
-      </c>
-      <c r="G32" t="n">
-        <v>54631720</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>108926</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>20200910</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>中華電信08月電話3922161(北區客戶播打加盟0800)</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>-342</v>
-      </c>
-      <c r="G33" t="n">
-        <v>54631378</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>108926</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>20200910</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>匯擷適科技-09月-好店緣商圈數據平台-展店用大數據    </t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>-2100</v>
-      </c>
-      <c r="G34" t="n">
-        <v>54629278</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>108381</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>1000920</t>
         </is>
       </c>
     </row>

--- a/MEDIA/100000_ 1102_301_會計科目餘額明細.xlsx
+++ b/MEDIA/100000_ 1102_301_會計科目餘額明細.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,7 +356,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>森邦(股)會計科目餘額明細(100000_ 1102_301_2020-10-20~2020-10-20)</t>
+          <t>森邦(股)會計科目餘額明細(100000_ 1102_301_2020-11-27~2020-11-27)</t>
         </is>
       </c>
     </row>
@@ -419,7 +419,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>47482170</v>
+        <v>27158238</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -427,7 +427,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20201020</t>
+          <t>20201127</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -442,21 +442,21 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>存現                            </t>
+          <t>退代尋/退訂-共3筆                    </t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>365557</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-16500</v>
       </c>
       <c r="G4" t="n">
-        <v>47847727</v>
+        <v>27141738</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>110332</t>
+          <t>111983</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -468,7 +468,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20201020</t>
+          <t>20201127</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -478,38 +478,38 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>楊梅青山                                    </t>
+          <t>三重三民	                                   </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>沖三重三民設備款                      </t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>15914</v>
+        <v>40000</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>47863641</v>
+        <v>27181738</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>110342</t>
+          <t>112079</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1000887</t>
+          <t>1000965</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20201020</t>
+          <t>20201127</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -519,38 +519,38 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>高雄城峰	                                   </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付11-1822林大為費用申請              </t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>18120</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-575</v>
       </c>
       <c r="G6" t="n">
-        <v>47881761</v>
+        <v>27181163</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>110278</t>
+          <t>111944</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1000880</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20201020</t>
+          <t>20201127</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -560,38 +560,38 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>台南文南                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付11-1825林大為費用申請              </t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>22578</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>-3800</v>
       </c>
       <c r="G7" t="n">
-        <v>47904339</v>
+        <v>27177363</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>110278</t>
+          <t>111944</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1000074</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20201020</t>
+          <t>20201127</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -601,38 +601,38 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>南崁奉化                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>退訂-共2筆                        </t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8940</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="G8" t="n">
-        <v>47913279</v>
+        <v>27176363</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>110278</t>
+          <t>112039</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1000822</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20201020</t>
+          <t>20201127</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -642,38 +642,38 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>虎尾復興                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付11-1824林大為費用申請              </t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>43715</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>-665</v>
       </c>
       <c r="G9" t="n">
-        <v>47956994</v>
+        <v>27175698</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>110278</t>
+          <t>111944</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1000594</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20201020</t>
+          <t>20201127</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -683,38 +683,38 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>三重仁義                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付徐和森-11-1841詹喻晴費用申請          </t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>17054</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>-1522</v>
       </c>
       <c r="G10" t="n">
-        <v>47974048</v>
+        <v>27174176</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>110333</t>
+          <t>111944</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1000405</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20201020</t>
+          <t>20201127</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -724,38 +724,38 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>東勢中山                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付11-1842吳恩賜費用申請              </t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>25780</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-8130</v>
       </c>
       <c r="G11" t="n">
-        <v>47999828</v>
+        <v>27166046</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>110278</t>
+          <t>111944</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1000290</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20201020</t>
+          <t>20201127</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,38 +765,38 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中壢環東中山                                  </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付11-1836黃隆玄費用申請              </t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>10790</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>-3901</v>
       </c>
       <c r="G12" t="n">
-        <v>48010618</v>
+        <v>27162145</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>110278</t>
+          <t>111944</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1000817</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20201020</t>
+          <t>20201127</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -806,38 +806,38 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>新竹鐵道                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付11-1793吳佩珍費用申請              </t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>27387</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-6235</v>
       </c>
       <c r="G13" t="n">
-        <v>48038005</v>
+        <v>27155910</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>110278</t>
+          <t>111944</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1000525</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20201020</t>
+          <t>20201127</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -847,38 +847,38 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>梧棲中興	                                   </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>台灣自來水公司匯入-國際路廠房用水設備工程保證金-退回   </t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>23344</v>
+        <v>104640</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>48061349</v>
+        <v>27260550</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>110278</t>
+          <t>112108</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1000898</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20201020</t>
+          <t>20201127</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -888,38 +888,38 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>鹽行仁愛	                                   </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付11-1735謝雅蓮費用申請              </t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>23000</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>-140</v>
       </c>
       <c r="G15" t="n">
-        <v>48084349</v>
+        <v>27260410</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>110278</t>
+          <t>111835</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1000833</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20201020</t>
+          <t>20201127</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -929,38 +929,38 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>內湖江南                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付11-1819洪宜秀費用申請              </t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>55314</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-2537</v>
       </c>
       <c r="G16" t="n">
-        <v>48139663</v>
+        <v>27257873</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>110278</t>
+          <t>111835</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1000146</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20201020</t>
+          <t>20201127</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -970,38 +970,38 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>竹北文興                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付11-1769謝雅蓮費用申請              </t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>11210</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="G17" t="n">
-        <v>48150873</v>
+        <v>27257833</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>110278</t>
+          <t>111835</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1000903</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20201020</t>
+          <t>20201127</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1011,38 +1011,38 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>北市忠孝復興                                  </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付11-1818洪宜秀費用申請              </t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>60613</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>-1429</v>
       </c>
       <c r="G18" t="n">
-        <v>48211486</v>
+        <v>27256404</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>110278</t>
+          <t>111835</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1000548</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20201020</t>
+          <t>20201127</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1052,38 +1052,38 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>高雄六合	                                   </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付11-1739王景鴻費用申請              </t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>41050</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>-5432</v>
       </c>
       <c r="G19" t="n">
-        <v>48252536</v>
+        <v>27250972</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>110278</t>
+          <t>111835</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1000849</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20201020</t>
+          <t>20201127</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1093,38 +1093,38 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>金門金城                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付11-1828蘇三鉛費用申請              </t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>59029</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-7733</v>
       </c>
       <c r="G20" t="n">
-        <v>48311565</v>
+        <v>27243239</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>110278</t>
+          <t>111835</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1000191</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20201020</t>
+          <t>20201127</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1134,38 +1134,38 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>員林建國                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付11-1831蘇三鉛費用申請              </t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>11367</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>-1618</v>
       </c>
       <c r="G21" t="n">
-        <v>48322932</v>
+        <v>27241621</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>110278</t>
+          <t>111835</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1000648</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20201020</t>
+          <t>20201127</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1175,38 +1175,38 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>堤諾長庚                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>暫收-北市延平北-黃偉明 暫收款68萬           </t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>63883</v>
+        <v>680000</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>48386815</v>
+        <v>27921621</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>110278</t>
+          <t>112078</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>4000024</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20201020</t>
+          <t>20201127</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1216,38 +1216,38 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>堤諾林口店                                   </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付11-1775王景鴻費用申請              </t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>172087</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>-3314</v>
       </c>
       <c r="G23" t="n">
-        <v>48558902</v>
+        <v>27918307</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>110278</t>
+          <t>111835</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>4000023</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20201020</t>
+          <t>20201127</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1262,21 +1262,21 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>匯:遠通電收(股)公司-ETAG109/11月通行費    </t>
+          <t>支付11-1833凃雅慧費用申請              </t>
         </is>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>-100000</v>
+        <v>-25000</v>
       </c>
       <c r="G24" t="n">
-        <v>48458902</v>
+        <v>27893307</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>109988</t>
+          <t>111835</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1288,7 +1288,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20201020</t>
+          <t>20201127</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1298,38 +1298,38 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>永和永利	                                   </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付11-1816任宇晨費用申請              </t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>18393</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>-420</v>
       </c>
       <c r="G25" t="n">
-        <v>48477295</v>
+        <v>27892887</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>110342</t>
+          <t>111835</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1000954</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20201020</t>
+          <t>20201127</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1339,31 +1339,1589 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>竹北台元	                                   </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>支付11-1814游宇宸費用申請              </t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-3300</v>
+      </c>
+      <c r="G26" t="n">
+        <v>27889587</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>111835</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>20201127</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>支付11-1823彭獻毅費用申請              </t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-395</v>
+      </c>
+      <c r="G27" t="n">
+        <v>27889192</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>111835</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>20201127</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>支付11-1817彭獻毅費用申請              </t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-7942</v>
+      </c>
+      <c r="G28" t="n">
+        <v>27881250</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>111835</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>20201127</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>支付11-1799鄭維愉費用申請              </t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-2135</v>
+      </c>
+      <c r="G29" t="n">
+        <v>27879115</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>111835</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>20201127</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>支付11-1832鄭維愉費用申請              </t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-725</v>
+      </c>
+      <c r="G30" t="n">
+        <v>27878390</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>111835</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>20201127</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>支付11-1820蕭清木費用申請              </t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-5007</v>
+      </c>
+      <c r="G31" t="n">
+        <v>27873383</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>111835</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>20201127</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>支付11-1813許仁傑費用申請              </t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-2535</v>
+      </c>
+      <c r="G32" t="n">
+        <v>27870848</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>111835</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>20201127</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>支付11-1771謝雅蓮費用申請              </t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-7600</v>
+      </c>
+      <c r="G33" t="n">
+        <v>27863248</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>111835</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>20201127</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>支付11-1810胡毓樺費用申請              </t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-1320</v>
+      </c>
+      <c r="G34" t="n">
+        <v>27861928</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>111835</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>20201127</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>土城延平                                    </t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>                              </t>
         </is>
       </c>
-      <c r="E26" t="n">
-        <v>23075</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>48500370</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>110278</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>1000920</t>
+      <c r="E35" t="n">
+        <v>28525</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>27890453</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>112094</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>1000677</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>20201127</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>三重正義南	                                  </t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>22746</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>27913199</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>112094</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>1000962</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>20201127</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>(結束)麗嬰房                                 </t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-702</v>
+      </c>
+      <c r="G37" t="n">
+        <v>27912497</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>111975</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>1000773</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>20201127</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>花蓮東華	                                   </t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>31258</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>27943755</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>112060</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>1000950</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>20201127</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>板橋三民	                                   </t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>22885</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>27966640</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>112060</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>1000936</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>20201127</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>頭城新興                                    </t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>100000.1102.301               </t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>27976640</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>112082</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>1000333</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>20201127</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>林口醒吾                                    </t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>100000.1102.301               </t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>29290</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>28005930</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>112082</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>1000099</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>20201127</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>竹東仁愛                                    </t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>100000.1102.301               </t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>27160</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>28033090</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>112082</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>1000109</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>20201127</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>新店建國                                    </t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>100000.1102.301               </t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>49758</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>28082848</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>112082</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>1000236</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>20201127</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>蘇澳中山                                    </t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>30849</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>28113697</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>112040</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>1000406</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>20201127</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>永和永利	                                   </t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>28084</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>28141781</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>112040</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>1000954</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>20201127</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>頭城新興                                    </t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>100000.1102.301               </t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>13000</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>28154781</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>112082</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>1000333</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>20201127</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>宜蘭健康                                    </t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>100000.1102.301               </t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>8036</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>28162817</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>112082</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>1000727</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>20201127</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>新豐新興                                    </t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>100000.1102.301               </t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>23104</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>28185921</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>112082</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>1000018</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>20201127</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>新竹延平                                    </t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>100000.1102.301               </t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>14000</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>28199921</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>112082</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>1000255</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>20201127</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>北市汀州三總                                  </t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>100000.1102.301               </t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>12300</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>28212221</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>112082</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>1000415</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>20201127</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>梧棲大聖	                                   </t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>50000</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>28262221</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>112040</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>1000889</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>20201127</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>神岡豐洲	                                   </t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>20532</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>28282753</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>112040</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>1000922</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>20201127</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>西螺光復                                    </t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>27187</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>28309940</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>112060</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>1000282</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>20201127</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>東勢中山                                    </t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>30000</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>28339940</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>112060</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>1000290</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>20201127</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>堤諾高雄河堤                                  </t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>71246</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>28411186</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>112060</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>4000017</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>20201127</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>竹北六家嘉豐	                                 </t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>11242</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>28422428</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>112060</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>1000927</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>20201127</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>梧棲中興	                                   </t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>16575</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>28439003</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>112060</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>1000898</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>20201127</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>崙背建國                                    </t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>30000</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>28469003</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>112060</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>1000790</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>20201127</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>新營中正	                                   </t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>13753</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>28482756</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>112060</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>1000834</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>20201127</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>太平勤益	                                   </t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>8226</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>28490982</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>112060</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>1000907</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>20201127</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>北市南京松江	                                 </t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>42263</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>28533245</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>112060</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>1000914</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>20201127</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>龍井竹坑                                    </t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>20195</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>28553440</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>112060</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>1000515</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>20201127</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>三重集美                                    </t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>58233</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>28611673</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>112060</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>1000151</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>20201127</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>退訂金/退保證金-共5筆                  </t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-121500</v>
+      </c>
+      <c r="G64" t="n">
+        <v>28490173</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>111974</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
